--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="見積書" sheetId="3" r:id="rId2"/>
+    <sheet name="納品書" sheetId="4" r:id="rId3"/>
+    <sheet name="請求書" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -237,6 +239,124 @@
   </si>
   <si>
     <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ← TODAY()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ← [Cｔｒｌ]＋「；」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見　積　書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積もり申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オミツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納　品　書</t>
+    <rPh sb="0" eb="1">
+      <t>オサメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要 ：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所 ：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限 ：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -244,7 +364,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +428,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +475,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -357,6 +532,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -364,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,39 +557,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,9 +654,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -437,6 +675,9 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -451,12 +692,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="注文番号" dataDxfId="2"/>
+    <tableColumn id="1" name="注文番号" dataDxfId="1"/>
     <tableColumn id="2" name="商品名"/>
-    <tableColumn id="3" name="本体価格" dataDxfId="1" dataCellStyle="桁区切り"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,187 +990,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="5" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:A19"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,102 +1012,102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>15900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>19900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>49400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>9800</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>25400</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3001</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3002</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>26700</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3003</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>3500</v>
       </c>
     </row>
@@ -1049,4 +1121,750 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="22">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <f t="shared" ref="A7" si="0">E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="", "", VLOOKUP(A11, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A11, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="20">
+        <f>IFERROR(C11*D11, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="", "", VLOOKUP(A12, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A12, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="20">
+        <f t="shared" ref="E12:E16" si="1">IFERROR(C12*D12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="", "", VLOOKUP(A13, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A13, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="", "", VLOOKUP(A14, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A14, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="", "", VLOOKUP(A15, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A15, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="", "", VLOOKUP(A16, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A16, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="6">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="17">
+        <f>ROUNDDOWN(E17*D18, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="18">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="22">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="", "", VLOOKUP(A11, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A11, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="20">
+        <f>IFERROR(C11*D11, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="", "", VLOOKUP(A12, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A12, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="20">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="", "", VLOOKUP(A13, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A13, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="", "", VLOOKUP(A14, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A14, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="", "", VLOOKUP(A15, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A15, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="", "", VLOOKUP(A16, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A16, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="6">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="C18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="17">
+        <f>ROUNDDOWN(E17*D18, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="18">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="D4" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="22">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <f t="shared" ref="A7:B8" si="0">E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="", "", VLOOKUP(A11, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A11, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="20">
+        <f>IFERROR(C11*D11, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="", "", VLOOKUP(A12, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A12, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="20">
+        <f t="shared" ref="E12:E16" si="1">IFERROR(C12*D12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="", "", VLOOKUP(A13, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A13, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="", "", VLOOKUP(A14, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A14, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="", "", VLOOKUP(A15, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A15, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="", "", VLOOKUP(A16, テーブル1[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IFERROR(VLOOKUP(A16, テーブル1[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="17">
+        <f>ROUNDDOWN(E17*D18, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="18">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>